--- a/biology/Botanique/Flocon_d'avoine/Flocon_d'avoine.xlsx
+++ b/biology/Botanique/Flocon_d'avoine/Flocon_d'avoine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flocon_d%27avoine</t>
+          <t>Flocon_d'avoine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le flocon d'avoine est une denrée alimentaire céréalière créée par la transformation d'une graine d'avoine par un procédé de traitement des gruaux à basse température. Ces flocons sont consommés principalement dans les pays de culture anglo-saxonne, au Royaume-Uni, notamment sous forme de porridge, aux États-Unis, ainsi qu'en Alsace, en Lorraine et dans les pays de culture germanique et nordique où on le consomme agrémenté de lait, de graines, de fruits secs, sous forme de musli. Au Canada, les flocons d'avoine sont connus sous le nom de gruau. Ils étaient autrefois réservés à l'alimentation des chevaux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flocon_d%27avoine</t>
+          <t>Flocon_d'avoine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après les études archéologiques l'origine de l'avoine remonte à 2000 ans avant J.-C.  
 Les Romains et les Grecs considéraient l'avoine comme une mauvaise herbe, plus adaptée à l'alimentation animale. Avant d'être utilisée en cuisine, l'avoine était considérée comme une plante médicinale.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Flocon_d%27avoine</t>
+          <t>Flocon_d'avoine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Culture de l'avoine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'avoine est une plante annuelle, son cycle de vie complet est d'une année, elle est semée au début du printemps et a besoin d'un sol humide pour germer au bout de 7 à 20 jours.
 La récolte se fait en coupant la plante à 10 centimètres au-dessus du sol, elle sera ensuite séchée puis enroulée.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Flocon_d%27avoine</t>
+          <t>Flocon_d'avoine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Variétés de flocon d’avoine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il existe trois variétés de flocon d'avoine : 
 Flocon d'avoine instantané : C'est la variété d'avoine qui cuit le plus vite. Cette variété de flocon d'avoine a été précuite à la vapeur et coupée en petits morceaux. Ils produiront souvent une texture moelleuse et un arôme doux.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Flocon_d%27avoine</t>
+          <t>Flocon_d'avoine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,9 +628,11 @@
           <t>Valeurs nutritionnelles du flocon d'avoine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le flocon d'avoine contient 350 kilocalories par portion de 100 grammes[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le flocon d'avoine contient 350 kilocalories par portion de 100 grammes.
 Valeurs nutritionnelles, par 100 grammes de flocon d'avoine.
 Total des graisses : 6,9 g
 Sodium : 49 mg (traces)
@@ -641,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Flocon_d%27avoine</t>
+          <t>Flocon_d'avoine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,16 +679,18 @@
           <t>Intérêts et bienfaits du flocon d’avoine sur la santé</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les flocons d'avoine sont d'excellentes sources de fibres, de fer et de vitamine B1 (thiamine).
-Une consommation d’avoine apportant de 3 g/j de β-glucane pourrait contribuer à diminuer le taux de LDL cholestérol[2].
-Potentiel effet positif dans la constipation chronique[3].
-Pourrait avoir un effet bénéfique dans la prévention du diabète de type 2 et des maladies cardiovasculaires[4].
+Une consommation d’avoine apportant de 3 g/j de β-glucane pourrait contribuer à diminuer le taux de LDL cholestérol.
+Potentiel effet positif dans la constipation chronique.
+Pourrait avoir un effet bénéfique dans la prévention du diabète de type 2 et des maladies cardiovasculaires.
 Riche en protéines, les flocons d'avoine contiennent 14g de protéines pour 100g.
 Pourrait aider dans l'anémie par carence martiale du fait de la teneur en fer de l'avoine.
 La richesse en fibre des flocons d'avoine pourrait lui donner un effet satiétogène et ainsi limiter la prise alimentaire.
-La consommation de flocons d'avoine, de par leur teneur en fibres, pourrait diminuer le risque de cancer colorectal[5].</t>
+La consommation de flocons d'avoine, de par leur teneur en fibres, pourrait diminuer le risque de cancer colorectal.</t>
         </is>
       </c>
     </row>
